--- a/biology/Zoologie/Aricia/Aricia.xlsx
+++ b/biology/Zoologie/Aricia/Aricia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aricia est un genre paléarctique de lépidoptères de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
 </t>
@@ -511,18 +523,20 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Aricia a été décrit par le zoologiste allemand Heinrich Gottlieb Ludwig Reichenbach en 1817[1].
-L'espèce type pour le genre est Aricia agestis ([Denis &amp; Schiffermüller], 1775)[2].
-Synonymes[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Aricia a été décrit par le zoologiste allemand Heinrich Gottlieb Ludwig Reichenbach en 1817.
+L'espèce type pour le genre est Aricia agestis ([Denis &amp; Schiffermüller], 1775).
+Synonymes : 
 Gynomorphia Verity, 1929
 Pseudoaricia Beuret, 1959
 Ultraaricia Beuret, 1959
 Umpria Zhdanko, 1994
 Le genre est classé dans la famille des Lycaenidae, la sous-famille des Polyommatinae et la tribu des Polyommatini.
 Sa composition peut varier en fonction des sources : par exemple, il incluait naguère les espèces aujourd'hui placées dans les genres Eumedonia et Icaricia. Certains auteurs ont également synonymisé Aricia avec Plebejus.
-Les contours actuels du genre Aricia et sa position systématique ont récemment été précisés par des études de phylogénétique moléculaire[3]. 
+Les contours actuels du genre Aricia et sa position systématique ont récemment été précisés par des études de phylogénétique moléculaire. 
 </t>
         </is>
       </c>
@@ -551,7 +565,9 @@
           <t>Distribution géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Aricia est paléarctique : ses espèces sont présentes en Eurasie tempérée et en Afrique du Nord.
 </t>
@@ -582,26 +598,165 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre compte une quinzaine d'espèces, et est parfois subdivisé en groupes d'espèces[2] :
-Groupe agestis (Aricia s.str.)
-(Sensu stricto (ou stricto sensu) est une locution latine qui signifie « au sens strict » et dont l'abréviation est s.str.. En biologie, cette locution indique qu'un taxon doit être pris au sens strict.)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre compte une quinzaine d'espèces, et est parfois subdivisé en groupes d'espèces :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aricia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aricia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Groupe agestis (Aricia s.str.)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Sensu stricto (ou stricto sensu) est une locution latine qui signifie « au sens strict » et dont l'abréviation est s.str.. En biologie, cette locution indique qu'un taxon doit être pris au sens strict.)
 Aricia agestis ([Denis &amp; Schiffermüller], 1775) — le Collier-de-corail ou Argus brun — de l'Europe à l'Asie centrale.
 Aricia cramera (Eschscholtz, 1821) — péninsule Ibérique, Afrique du Nord et Îles Canaries.
 Aricia artaxerxes (Fabricius, 1793) — l'Argus de l'hélianthème — montagnes d'Eurasie.
-Aricia montensis Verity, 1928 — Sud-Ouest de l'Europe et Afrique du Nord.
-Groupe anteros (Ultraaricia)
-Aricia anteros (Freyer, 1838) — l'Azuré pont-euxin — Balkans, Asie Mineure, Levant.
+Aricia montensis Verity, 1928 — Sud-Ouest de l'Europe et Afrique du Nord.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aricia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aricia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Groupe anteros (Ultraaricia)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Aricia anteros (Freyer, 1838) — l'Azuré pont-euxin — Balkans, Asie Mineure, Levant.
 Aricia bassoni Larsen, 1974 — Levant.
 Aricia crassipuncta (Christoph, 1893) — Kurdistan.
 Aricia morronensis (Ribbe, 1910) — l'Argus castillan — péninsule Ibérique.
-Aricia vandarbani (Pfeiffer, 1937) — Iran.
-Groupe chinensis (Umpria)
-Aricia chinensis (Murray, 1874) — Asie centrale, Mongolie, Chine, Corée.
-Groupe nicias (Pseudoaricia)
-Aricia dorsumstellae (Graves, 1923) — Caucase.
-Aricia hyacinthus (Herrich-Schäffer, [1847]) — Asie Mineure, Levant.
+Aricia vandarbani (Pfeiffer, 1937) — Iran.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aricia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aricia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Groupe chinensis (Umpria)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Aricia chinensis (Murray, 1874) — Asie centrale, Mongolie, Chine, Corée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aricia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aricia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Groupe nicias (Pseudoaricia)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aricia dorsumstellae (Graves, 1923) — Caucase.
+Aricia hyacinthus (Herrich-Schäffer, ) — Asie Mineure, Levant.
 Aricia isaurica (Staudinger, 1871) — Kurdistan, Levant.
 Aricia torulensis Hesselbarth &amp; Siepe, 1993 — Kurdistan.
 Aricia nicias (Meigen, 1829) — l'Azuré des géraniums — Pyrénées, Alpes, Scandinavie, Sud de la Sibérie, Nord de la Mongolie.
